--- a/parts/MAL_Hardware_list.xlsx
+++ b/parts/MAL_Hardware_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed7136072a6b06b3/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsmainzde.sharepoint.com/sites/PraxismodulII656/Freigegebene Dokumente/General/Dokumente Praxismodul 3/parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8D7ED0-1D09-AC4B-BFE8-18029048A375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{4B8D7ED0-1D09-AC4B-BFE8-18029048A375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E693CCDD-3585-F24A-982F-1A6869998AF0}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1240" windowWidth="34420" windowHeight="24540" xr2:uid="{38C3C8A2-A852-3642-B222-04398E5F4534}"/>
+    <workbookView xWindow="1200" yWindow="1240" windowWidth="58600" windowHeight="24540" xr2:uid="{38C3C8A2-A852-3642-B222-04398E5F4534}"/>
   </bookViews>
   <sheets>
     <sheet name="MAL Hardware list" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>009</t>
   </si>
   <si>
-    <t>https://www.amazon.de/your-orders/orders?_encoding=UTF8&amp;startIndex=10&amp;ref_=ppx_yo2ov_dt_b_pagination_1_2</t>
-  </si>
-  <si>
     <t>Order quantity</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>https://www.amazon.de/Raspberry-Aluminium-K%C3%BChlk%C3%B6rper-w%C3%A4rmeleitendem-Klebeband/dp/B0BK9N9Y7M/ref=sr_1_6?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2W8K4I0W8ILL7&amp;keywords=raspberry+pi+4+heatsink+set&amp;qid=1672680008&amp;sprefix=raspberry+pi+4+heat+sink+set%2Caps%2C109&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B077QJ3G5B/ref=ppx_yo_dt_b_asin_title_o05_s00?ie=UTF8&amp;psc=1</t>
   </si>
 </sst>
 </file>
@@ -399,22 +399,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,7 +736,7 @@
   <dimension ref="B2:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,14 +745,14 @@
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="12" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="B2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="19"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>5</v>
@@ -838,13 +838,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>15</v>
@@ -858,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>22</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>24</v>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6" t="s">
@@ -936,126 +936,126 @@
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="18" spans="2:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -1065,15 +1065,15 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" s="19" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
@@ -1083,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
@@ -1097,42 +1097,42 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="G22" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -1270,16 +1270,269 @@
     <hyperlink ref="G9" r:id="rId6" xr:uid="{DA21ECBE-E1B2-8E42-8AF8-0BBE65FDDEB8}"/>
     <hyperlink ref="G10" r:id="rId7" display="https://www.amazon.de/Elegoo-Points-Mini-Breadboard-Arduino/dp/B01M9CHKO4/ref=sr_1_1_sspa?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=KTOWGOLZUX9L&amp;keywords=mini+breadboard&amp;qid=1672676891&amp;sprefix=mini+breadboard%2Caps%2C104&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{20D39940-0194-1F45-B3AD-CD7AF74E602B}"/>
     <hyperlink ref="G11" r:id="rId8" xr:uid="{78AA3666-8D4C-3145-813E-109B6295FDAC}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{6E9B337A-F2A5-3440-AE3F-1B45528EF2DE}"/>
-    <hyperlink ref="G13" r:id="rId10" xr:uid="{B34F0559-90E0-2043-B8CC-F94A5B719858}"/>
-    <hyperlink ref="G14" r:id="rId11" display="https://www.amazon.de/Xinlie-Drahtbr%C3%BCcken-Steckbr%C3%BCcken-Female-Female-Male-Female/dp/B07QPDYLYK/ref=sr_1_15?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3T0QNUI3WCLU6&amp;keywords=steckverbinder+set+breadboard&amp;qid=1672677792&amp;sprefix=steckverbinder+set+breadboard%2Caps%2C84&amp;sr=8-15" xr:uid="{AA4C803C-C50A-3545-BC65-97B2C716E9B1}"/>
-    <hyperlink ref="G15" r:id="rId12" xr:uid="{246B1E98-308C-C84E-8D54-EC1F0070DF0E}"/>
-    <hyperlink ref="G22" r:id="rId13" display="https://www.ebay.de/itm/272847040760?mkevt=1&amp;mkcid=1&amp;mkrid=707-53477-19255-0&amp;campid=5338827335&amp;toolid=10029&amp;customid=272847040760_1&amp;_trkparms=ispr%3D1&amp;amdata=enc%3A1Fjov4AclTOOkfUeTkX--cw18&amp;customid=Cj0KCQiAnsqdBhCGARIsAAyjYjRBl9bE605_j3UD53cCnNhsNELJqPlBg0xFGgOj3mOA45-2O_gqr3AaAkP4EALw_wcB&amp;gclid=Cj0KCQiAnsqdBhCGARIsAAyjYjRBl9bE605_j3UD53cCnNhsNELJqPlBg0xFGgOj3mOA45-2O_gqr3AaAkP4EALw_wcB" xr:uid="{1636361F-4B5A-0345-BB05-20A567B34A53}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{9A903C9B-F172-CC40-9ADE-E6979CF649D8}"/>
-    <hyperlink ref="G17" r:id="rId15" display="https://www.amazon.de/300St%C3%BCck-2-5mmx-Kreuzschlitz-Senkkopf-Blechschrauben/dp/B01435JIDC/ref=sr_1_28?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=29JUE31QWDI6U&amp;keywords=2%2C5+mm+blechschrauben+senkkopf&amp;qid=1672679563&amp;sprefix=2+5+mm+blechschrauben+senkkopf%2Caps%2C75&amp;sr=8-28" xr:uid="{CCA17E92-78E2-1B40-BF8A-D27E8E247D3C}"/>
-    <hyperlink ref="G23" r:id="rId16" display="https://www.amazon.de/Raspberry-Aluminium-K%C3%BChlk%C3%B6rper-w%C3%A4rmeleitendem-Klebeband/dp/B0BK9N9Y7M/ref=sr_1_6?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2W8K4I0W8ILL7&amp;keywords=raspberry+pi+4+heatsink+set&amp;qid=1672680008&amp;sprefix=raspberry+pi+4+heat+sink+set%2Caps%2C109&amp;sr=8-6" xr:uid="{9A785FA0-7781-DA4F-9880-AE43A1C090D2}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{B34F0559-90E0-2043-B8CC-F94A5B719858}"/>
+    <hyperlink ref="G14" r:id="rId10" display="https://www.amazon.de/Xinlie-Drahtbr%C3%BCcken-Steckbr%C3%BCcken-Female-Female-Male-Female/dp/B07QPDYLYK/ref=sr_1_15?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3T0QNUI3WCLU6&amp;keywords=steckverbinder+set+breadboard&amp;qid=1672677792&amp;sprefix=steckverbinder+set+breadboard%2Caps%2C84&amp;sr=8-15" xr:uid="{AA4C803C-C50A-3545-BC65-97B2C716E9B1}"/>
+    <hyperlink ref="G15" r:id="rId11" xr:uid="{246B1E98-308C-C84E-8D54-EC1F0070DF0E}"/>
+    <hyperlink ref="G22" r:id="rId12" display="https://www.ebay.de/itm/272847040760?mkevt=1&amp;mkcid=1&amp;mkrid=707-53477-19255-0&amp;campid=5338827335&amp;toolid=10029&amp;customid=272847040760_1&amp;_trkparms=ispr%3D1&amp;amdata=enc%3A1Fjov4AclTOOkfUeTkX--cw18&amp;customid=Cj0KCQiAnsqdBhCGARIsAAyjYjRBl9bE605_j3UD53cCnNhsNELJqPlBg0xFGgOj3mOA45-2O_gqr3AaAkP4EALw_wcB&amp;gclid=Cj0KCQiAnsqdBhCGARIsAAyjYjRBl9bE605_j3UD53cCnNhsNELJqPlBg0xFGgOj3mOA45-2O_gqr3AaAkP4EALw_wcB" xr:uid="{1636361F-4B5A-0345-BB05-20A567B34A53}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{9A903C9B-F172-CC40-9ADE-E6979CF649D8}"/>
+    <hyperlink ref="G17" r:id="rId14" display="https://www.amazon.de/300St%C3%BCck-2-5mmx-Kreuzschlitz-Senkkopf-Blechschrauben/dp/B01435JIDC/ref=sr_1_28?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=29JUE31QWDI6U&amp;keywords=2%2C5+mm+blechschrauben+senkkopf&amp;qid=1672679563&amp;sprefix=2+5+mm+blechschrauben+senkkopf%2Caps%2C75&amp;sr=8-28" xr:uid="{CCA17E92-78E2-1B40-BF8A-D27E8E247D3C}"/>
+    <hyperlink ref="G23" r:id="rId15" display="https://www.amazon.de/Raspberry-Aluminium-K%C3%BChlk%C3%B6rper-w%C3%A4rmeleitendem-Klebeband/dp/B0BK9N9Y7M/ref=sr_1_6?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2W8K4I0W8ILL7&amp;keywords=raspberry+pi+4+heatsink+set&amp;qid=1672680008&amp;sprefix=raspberry+pi+4+heat+sink+set%2Caps%2C109&amp;sr=8-6" xr:uid="{9A785FA0-7781-DA4F-9880-AE43A1C090D2}"/>
+    <hyperlink ref="G12" r:id="rId16" xr:uid="{9F311CBB-944E-E644-AD06-13A75442A259}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ad68f1fe-2d5d-43af-801e-5a77afe84719" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74ae80b3-f735-49d2-8083-5567786a8d2d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C96625BA55127F418AA0E91C398F5150" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c493e328b554b75e3408512c2260ac86">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74ae80b3-f735-49d2-8083-5567786a8d2d" xmlns:ns3="ad68f1fe-2d5d-43af-801e-5a77afe84719" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a5b977545d13671bf8b8d2f05543856" ns2:_="" ns3:_="">
+    <xsd:import namespace="74ae80b3-f735-49d2-8083-5567786a8d2d"/>
+    <xsd:import namespace="ad68f1fe-2d5d-43af-801e-5a77afe84719"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="74ae80b3-f735-49d2-8083-5567786a8d2d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8182395d-9b83-49a2-9ed8-d7e85937590c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ad68f1fe-2d5d-43af-801e-5a77afe84719" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c4bdddfc-2b56-49d7-bf2b-736708041d5a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ad68f1fe-2d5d-43af-801e-5a77afe84719">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBCF2E3A-DD92-41A7-A4BD-B692489AC822}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ad68f1fe-2d5d-43af-801e-5a77afe84719"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="74ae80b3-f735-49d2-8083-5567786a8d2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A7E732-737A-43F4-8B9C-2DF77677BBC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54A6758D-BD92-4975-B3E6-29D5694DE372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74ae80b3-f735-49d2-8083-5567786a8d2d"/>
+    <ds:schemaRef ds:uri="ad68f1fe-2d5d-43af-801e-5a77afe84719"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>